--- a/inst/extdata/Med_calc_noformcol.xlsx
+++ b/inst/extdata/Med_calc_noformcol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheej\Documents\Sheeja_WinLap\repos\packDAMipd\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800442CB-9BF9-4556-955F-3FFEC9437605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC33018-7A27-4651-A914-56B56E61F136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="900" windowWidth="19395" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="2" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Tramadol</t>
   </si>
   <si>
-    <t>Conversion factor</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>Conversion</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,21 +510,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>3.5000000000000003E-2</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>35</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.15</v>
@@ -554,10 +554,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0.15</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0.1</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0.1</v>
@@ -588,21 +588,21 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -610,13 +610,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1.5</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0.125</v>
@@ -654,10 +654,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>0.125</v>
@@ -676,21 +676,21 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0.15</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>0.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>0.15</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>0.1</v>
@@ -731,24 +731,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>1.5</v>
